--- a/Project 1 - Test Cases.xlsx
+++ b/Project 1 - Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitan\OneDrive\Desktop\Software Testing Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D2C22-1BB6-4175-B82F-68BD58C57E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024368F-3581-43EA-B803-1564641ADA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="177">
   <si>
     <t>Test Scenario TID</t>
   </si>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="14.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1269,7 +1269,9 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1673,7 +1675,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="15">
       <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
@@ -1823,7 +1825,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="15">
       <c r="A16" s="16" t="s">
         <v>36</v>
       </c>
@@ -7855,12 +7857,71 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7884,7 +7945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0049B1EC-E888-4347-BD41-3A32186AFF9C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
